--- a/data/trans_orig/P16B15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69F73D83-B404-48D6-95CE-F0536C62CCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF940C30-38C8-4700-BF7C-1883FC35E66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{24B35AEF-A3AD-44FA-B013-984A0465C3CD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{419CD0C9-B702-43FD-9BEA-3DA16ABC606A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="145">
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2007 (Tasa respuesta: 7,0%)</t>
   </si>
@@ -253,31 +253,37 @@
     <t>99,51%</t>
   </si>
   <si>
+    <t>97,29%</t>
+  </si>
+  <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,34%</t>
+    <t>98,16%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>98,64%</t>
+    <t>98,78%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
+    <t>2,71%</t>
+  </si>
+  <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,66%</t>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,36%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>98,12%</t>
@@ -313,37 +319,37 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,82%</t>
+    <t>98,55%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,83%</t>
+    <t>98,57%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,08%</t>
+    <t>99,07%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,18%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,43%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,93%</t>
   </si>
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2015 (Tasa respuesta: 9,67%)</t>
@@ -352,43 +358,43 @@
     <t>99,36%</t>
   </si>
   <si>
-    <t>96,75%</t>
+    <t>96,79%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,05%</t>
+    <t>97,25%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,92%</t>
+    <t>97,93%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>3,25%</t>
+    <t>3,21%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>2,95%</t>
+    <t>2,75%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,08%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>97,44%</t>
   </si>
   <si>
-    <t>93,34%</t>
+    <t>93,33%</t>
   </si>
   <si>
     <t>98,23%</t>
@@ -397,7 +403,7 @@
     <t>98,67%</t>
   </si>
   <si>
-    <t>95,79%</t>
+    <t>96,22%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -406,7 +412,7 @@
     <t>2,56%</t>
   </si>
   <si>
-    <t>6,66%</t>
+    <t>6,67%</t>
   </si>
   <si>
     <t>1,77%</t>
@@ -418,7 +424,7 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>4,21%</t>
+    <t>3,78%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -442,7 +448,10 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>96,62%</t>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>99,47%</t>
@@ -451,34 +460,19 @@
     <t>98,37%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>3,38%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
     <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
   </si>
 </sst>
 </file>
@@ -890,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8D7CB5-0361-4B77-A375-F15B97232A2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFB756B-3D07-405C-96B2-0E36E9EE9CAE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1641,7 +1635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCD6865-831D-4994-9CE8-9A8C7FC0F2C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612AEE14-5B52-4C4E-892E-589404D6665E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1768,7 +1762,7 @@
         <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -1780,10 +1774,10 @@
         <v>325296</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -1795,10 +1789,10 @@
         <v>528973</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -1816,13 +1810,13 @@
         <v>1007</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1831,13 +1825,13 @@
         <v>1077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -1846,13 +1840,13 @@
         <v>2083</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,7 +1917,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -1953,7 +1947,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -1977,7 +1971,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2007,7 +2001,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,7 +2072,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2093,7 +2087,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2108,7 +2102,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2132,7 +2126,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2147,7 +2141,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2162,7 +2156,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,10 +2224,10 @@
         <v>349115</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2245,10 +2239,10 @@
         <v>433445</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2260,10 +2254,10 @@
         <v>782561</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2281,13 +2275,13 @@
         <v>1007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2296,13 +2290,13 @@
         <v>1077</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2311,13 +2305,13 @@
         <v>2083</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,7 +2386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A08266B-3F0A-4DD7-BBE8-531D7395BAF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517A1B35-41D4-48C9-89CC-31F21E0C48ED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2409,7 +2403,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2516,10 +2510,10 @@
         <v>149137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2531,10 +2525,10 @@
         <v>234942</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -2546,13 +2540,13 @@
         <v>384079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2561,13 @@
         <v>964</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2582,13 +2576,13 @@
         <v>1993</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2597,13 +2591,13 @@
         <v>2957</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2665,13 @@
         <v>128922</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>107</v>
@@ -2689,7 +2683,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2701,13 +2695,13 @@
         <v>250814</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2716,13 @@
         <v>3392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2743,7 +2737,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2752,13 +2746,13 @@
         <v>3392</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,7 +2823,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2844,7 +2838,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2859,7 +2853,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2883,7 +2877,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2898,7 +2892,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2913,7 +2907,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2975,13 @@
         <v>304701</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -2996,10 +2990,10 @@
         <v>372275</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3011,13 +3005,13 @@
         <v>676975</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,10 +3029,10 @@
         <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3047,13 +3041,13 @@
         <v>1993</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3062,13 +3056,13 @@
         <v>6349</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF940C30-38C8-4700-BF7C-1883FC35E66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB7258F6-3A27-42A3-B5BF-B50D12A533D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{419CD0C9-B702-43FD-9BEA-3DA16ABC606A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93955E0E-3FD6-4D3D-8736-5BE688815A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="149">
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2007 (Tasa respuesta: 7,0%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>99,12%</t>
   </si>
   <si>
-    <t>96,9%</t>
+    <t>97,29%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,13%</t>
+    <t>98,31%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>3,1%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,87%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -124,43 +124,43 @@
     <t>96,05%</t>
   </si>
   <si>
-    <t>86,87%</t>
+    <t>86,9%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>89,78%</t>
+    <t>91,37%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>13,13%</t>
+    <t>13,1%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>10,22%</t>
+    <t>8,63%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -169,7 +169,7 @@
     <t>95,86%</t>
   </si>
   <si>
-    <t>79,37%</t>
+    <t>78,77%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -178,13 +178,13 @@
     <t>97,36%</t>
   </si>
   <si>
-    <t>84,9%</t>
+    <t>86,77%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>20,63%</t>
+    <t>21,23%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -193,10 +193,10 @@
     <t>2,64%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -205,7 +205,7 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>97,33%</t>
+    <t>97,31%</t>
   </si>
   <si>
     <t>99,68%</t>
@@ -214,87 +214,93 @@
     <t>98,77%</t>
   </si>
   <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2012 (Tasa respuesta: 10,97%)</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2012 (Tasa respuesta: 10,97%)</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
     <t>1,07%</t>
   </si>
   <si>
@@ -319,13 +325,13 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,55%</t>
+    <t>98,54%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,57%</t>
+    <t>98,63%</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -337,13 +343,13 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,45%</t>
+    <t>1,46%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,43%</t>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -352,49 +358,49 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2015 (Tasa respuesta: 9,67%)</t>
+    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2016 (Tasa respuesta: 9,67%)</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>96,79%</t>
+    <t>96,18%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,25%</t>
+    <t>97,07%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,93%</t>
+    <t>97,94%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>3,21%</t>
+    <t>3,82%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>2,75%</t>
+    <t>2,93%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,07%</t>
+    <t>2,06%</t>
   </si>
   <si>
     <t>97,44%</t>
   </si>
   <si>
-    <t>93,33%</t>
+    <t>93,29%</t>
   </si>
   <si>
     <t>98,23%</t>
@@ -403,7 +409,7 @@
     <t>98,67%</t>
   </si>
   <si>
-    <t>96,22%</t>
+    <t>96,5%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -412,7 +418,7 @@
     <t>2,56%</t>
   </si>
   <si>
-    <t>6,67%</t>
+    <t>6,71%</t>
   </si>
   <si>
     <t>1,77%</t>
@@ -424,7 +430,7 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>3,78%</t>
+    <t>3,5%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -448,31 +454,37 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>96,64%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,37%</t>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>3,36%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,63%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
 </sst>
 </file>
@@ -884,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFB756B-3D07-405C-96B2-0E36E9EE9CAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56648DE3-4734-4AEF-9BAD-A6DE7C21D21F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1635,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612AEE14-5B52-4C4E-892E-589404D6665E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0C5387-0F91-4657-867D-1B904FB64729}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1932,7 +1944,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1947,7 +1959,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -1971,7 +1983,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1986,7 +1998,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2001,7 +2013,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2087,7 +2099,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2102,7 +2114,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2126,7 +2138,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2141,7 +2153,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2156,7 +2168,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,10 +2236,10 @@
         <v>349115</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2239,10 +2251,10 @@
         <v>433445</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2254,10 +2266,10 @@
         <v>782561</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2275,13 +2287,13 @@
         <v>1007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2290,13 +2302,13 @@
         <v>1077</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2305,13 +2317,13 @@
         <v>2083</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,7 +2398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517A1B35-41D4-48C9-89CC-31F21E0C48ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C25F9FC-0141-40FB-AB27-316E2A55D17E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2403,7 +2415,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2510,10 +2522,10 @@
         <v>149137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2525,10 +2537,10 @@
         <v>234942</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -2540,13 +2552,13 @@
         <v>384079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2573,13 @@
         <v>964</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2576,13 +2588,13 @@
         <v>1993</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2591,13 +2603,13 @@
         <v>2957</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2677,13 @@
         <v>128922</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H7" s="7">
         <v>107</v>
@@ -2683,7 +2695,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2695,13 +2707,13 @@
         <v>250814</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,13 +2728,13 @@
         <v>3392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2737,7 +2749,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2746,13 +2758,13 @@
         <v>3392</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,7 +2835,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2838,7 +2850,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2853,7 +2865,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2877,7 +2889,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2892,7 +2904,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2907,7 +2919,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2987,13 @@
         <v>304701</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -2990,10 +3002,10 @@
         <v>372275</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3005,13 +3017,13 @@
         <v>676975</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3038,13 @@
         <v>4355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3041,13 +3053,13 @@
         <v>1993</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3056,13 +3068,13 @@
         <v>6349</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB7258F6-3A27-42A3-B5BF-B50D12A533D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6089BAF-F62C-4C16-BF14-2E07528B77DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93955E0E-3FD6-4D3D-8736-5BE688815A2E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28E3A777-61A4-4B4B-8F93-946BA887C6F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="147">
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2007 (Tasa respuesta: 7,0%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>99,12%</t>
   </si>
   <si>
-    <t>97,29%</t>
+    <t>96,9%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,31%</t>
+    <t>98,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,69%</t>
+    <t>1,87%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -124,43 +124,43 @@
     <t>96,05%</t>
   </si>
   <si>
-    <t>86,9%</t>
+    <t>86,87%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>91,37%</t>
+    <t>89,78%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>13,1%</t>
+    <t>13,13%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>8,63%</t>
+    <t>10,22%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -169,7 +169,7 @@
     <t>95,86%</t>
   </si>
   <si>
-    <t>78,77%</t>
+    <t>79,37%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -178,13 +178,13 @@
     <t>97,36%</t>
   </si>
   <si>
-    <t>86,77%</t>
+    <t>84,9%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>21,23%</t>
+    <t>20,63%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -193,10 +193,10 @@
     <t>2,64%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -205,7 +205,7 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>97,31%</t>
+    <t>97,33%</t>
   </si>
   <si>
     <t>99,68%</t>
@@ -214,16 +214,16 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,36%</t>
+    <t>4,01%</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -232,16 +232,16 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>2,69%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -253,238 +253,232 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>97,57%</t>
-  </si>
-  <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>97,91%</t>
+    <t>98,34%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2016 (Tasa respuesta: 9,67%)</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2016 (Tasa respuesta: 9,67%)</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>2,02%</t>
+    <t>2,01%</t>
   </si>
 </sst>
 </file>
@@ -896,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56648DE3-4734-4AEF-9BAD-A6DE7C21D21F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA840304-B93C-48DE-B45B-137B92565AFE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1647,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0C5387-0F91-4657-867D-1B904FB64729}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9575AF91-1154-4EF7-A84F-2AD56EDBBDFE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1774,7 +1768,7 @@
         <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -1786,10 +1780,10 @@
         <v>325296</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -1801,10 +1795,10 @@
         <v>528973</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -1822,13 +1816,13 @@
         <v>1007</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1837,13 +1831,13 @@
         <v>1077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -1852,13 +1846,13 @@
         <v>2083</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,7 +1923,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -1944,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1959,7 +1953,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -1983,7 +1977,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1998,7 +1992,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2013,7 +2007,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,7 +2078,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2099,7 +2093,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2114,7 +2108,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2138,7 +2132,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2153,7 +2147,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2168,7 +2162,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,10 +2230,10 @@
         <v>349115</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2251,10 +2245,10 @@
         <v>433445</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2266,10 +2260,10 @@
         <v>782561</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2287,13 +2281,13 @@
         <v>1007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2302,13 +2296,13 @@
         <v>1077</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2317,13 +2311,13 @@
         <v>2083</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,7 +2392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C25F9FC-0141-40FB-AB27-316E2A55D17E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4564959B-F4E0-446E-BD64-F04A1CB240E8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2415,7 +2409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2522,10 +2516,10 @@
         <v>149137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2537,10 +2531,10 @@
         <v>234942</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -2552,13 +2546,13 @@
         <v>384079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2567,13 @@
         <v>964</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2588,13 +2582,13 @@
         <v>1993</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2603,13 +2597,13 @@
         <v>2957</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2671,13 @@
         <v>128922</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>107</v>
@@ -2695,7 +2689,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2707,13 +2701,13 @@
         <v>250814</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2722,13 @@
         <v>3392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2749,7 +2743,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2758,13 +2752,13 @@
         <v>3392</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,7 +2829,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2850,7 +2844,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2865,7 +2859,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2889,7 +2883,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2904,7 +2898,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2919,7 +2913,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2981,13 @@
         <v>304701</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -3002,10 +2996,10 @@
         <v>372275</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3017,13 +3011,13 @@
         <v>676975</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3032,13 @@
         <v>4355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3053,13 +3047,13 @@
         <v>1993</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3068,13 +3062,13 @@
         <v>6349</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6089BAF-F62C-4C16-BF14-2E07528B77DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51D0DD50-C99B-46D0-B8A6-083F964F0886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28E3A777-61A4-4B4B-8F93-946BA887C6F1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B721F025-DEC5-4783-85CE-2EF2A13E5733}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA840304-B93C-48DE-B45B-137B92565AFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8193E3F-C555-4A93-9112-E5C457E64AED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1641,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9575AF91-1154-4EF7-A84F-2AD56EDBBDFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C5E30B-5192-4AF7-AF65-F08F4A3EDA58}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2242,7 +2242,7 @@
         <v>398</v>
       </c>
       <c r="I13" s="7">
-        <v>433445</v>
+        <v>433446</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>92</v>
@@ -2344,7 +2344,7 @@
         <v>399</v>
       </c>
       <c r="I15" s="7">
-        <v>434522</v>
+        <v>434523</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4564959B-F4E0-446E-BD64-F04A1CB240E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EC5B05-F132-4B98-92B3-3D6620F5EA9A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
